--- a/Clean Data/putty/new-rats-putty-0.61.xlsx
+++ b/Clean Data/putty/new-rats-putty-0.61.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuyingwang/Desktop/csci522paper/Clean Data/putty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1EFCAC-AE12-CA43-B478-D3960ABF6387}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E599FFCF-F60B-7744-8E00-30B4BD26C894}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35280" yWindow="4480" windowWidth="27240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36340" yWindow="-720" windowWidth="27240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="382">
   <si>
     <t>Total</t>
   </si>
@@ -171,13 +171,1012 @@
   </si>
   <si>
     <t>random</t>
+  </si>
+  <si>
+    <t>line/0</t>
+  </si>
+  <si>
+    <t>line/1</t>
+  </si>
+  <si>
+    <t>line/2</t>
+  </si>
+  <si>
+    <t>line/3</t>
+  </si>
+  <si>
+    <t>line/4</t>
+  </si>
+  <si>
+    <t>line/5</t>
+  </si>
+  <si>
+    <t>line/6</t>
+  </si>
+  <si>
+    <t>line/7</t>
+  </si>
+  <si>
+    <t>line/8</t>
+  </si>
+  <si>
+    <t>line/9</t>
+  </si>
+  <si>
+    <t>line/10</t>
+  </si>
+  <si>
+    <t>line/11</t>
+  </si>
+  <si>
+    <t>line/12</t>
+  </si>
+  <si>
+    <t>line/13</t>
+  </si>
+  <si>
+    <t>line/14</t>
+  </si>
+  <si>
+    <t>line/15</t>
+  </si>
+  <si>
+    <t>line/16</t>
+  </si>
+  <si>
+    <t>line/17</t>
+  </si>
+  <si>
+    <t>line/18</t>
+  </si>
+  <si>
+    <t>line/19</t>
+  </si>
+  <si>
+    <t>line/20</t>
+  </si>
+  <si>
+    <t>line/21</t>
+  </si>
+  <si>
+    <t>line/22</t>
+  </si>
+  <si>
+    <t>line/23</t>
+  </si>
+  <si>
+    <t>line/24</t>
+  </si>
+  <si>
+    <t>line/25</t>
+  </si>
+  <si>
+    <t>line/26</t>
+  </si>
+  <si>
+    <t>line/27</t>
+  </si>
+  <si>
+    <t>line/28</t>
+  </si>
+  <si>
+    <t>line/29</t>
+  </si>
+  <si>
+    <t>line/30</t>
+  </si>
+  <si>
+    <t>line/31</t>
+  </si>
+  <si>
+    <t>line/32</t>
+  </si>
+  <si>
+    <t>line/33</t>
+  </si>
+  <si>
+    <t>line/34</t>
+  </si>
+  <si>
+    <t>line/35</t>
+  </si>
+  <si>
+    <t>line/36</t>
+  </si>
+  <si>
+    <t>line/37</t>
+  </si>
+  <si>
+    <t>line/38</t>
+  </si>
+  <si>
+    <t>line/39</t>
+  </si>
+  <si>
+    <t>line/40</t>
+  </si>
+  <si>
+    <t>line/41</t>
+  </si>
+  <si>
+    <t>line/42</t>
+  </si>
+  <si>
+    <t>line/43</t>
+  </si>
+  <si>
+    <t>line/44</t>
+  </si>
+  <si>
+    <t>line/45</t>
+  </si>
+  <si>
+    <t>line/46</t>
+  </si>
+  <si>
+    <t>line/47</t>
+  </si>
+  <si>
+    <t>line/48</t>
+  </si>
+  <si>
+    <t>line/49</t>
+  </si>
+  <si>
+    <t>line/50</t>
+  </si>
+  <si>
+    <t>line/51</t>
+  </si>
+  <si>
+    <t>line/52</t>
+  </si>
+  <si>
+    <t>line/53</t>
+  </si>
+  <si>
+    <t>line/54</t>
+  </si>
+  <si>
+    <t>line/55</t>
+  </si>
+  <si>
+    <t>line/56</t>
+  </si>
+  <si>
+    <t>line/57</t>
+  </si>
+  <si>
+    <t>line/58</t>
+  </si>
+  <si>
+    <t>line/59</t>
+  </si>
+  <si>
+    <t>line/60</t>
+  </si>
+  <si>
+    <t>line/61</t>
+  </si>
+  <si>
+    <t>line/62</t>
+  </si>
+  <si>
+    <t>line/63</t>
+  </si>
+  <si>
+    <t>line/64</t>
+  </si>
+  <si>
+    <t>line/65</t>
+  </si>
+  <si>
+    <t>line/66</t>
+  </si>
+  <si>
+    <t>line/67</t>
+  </si>
+  <si>
+    <t>line/68</t>
+  </si>
+  <si>
+    <t>line/69</t>
+  </si>
+  <si>
+    <t>line/70</t>
+  </si>
+  <si>
+    <t>line/71</t>
+  </si>
+  <si>
+    <t>line/72</t>
+  </si>
+  <si>
+    <t>line/73</t>
+  </si>
+  <si>
+    <t>line/74</t>
+  </si>
+  <si>
+    <t>line/75</t>
+  </si>
+  <si>
+    <t>line/76</t>
+  </si>
+  <si>
+    <t>line/77</t>
+  </si>
+  <si>
+    <t>line/78</t>
+  </si>
+  <si>
+    <t>line/79</t>
+  </si>
+  <si>
+    <t>line/80</t>
+  </si>
+  <si>
+    <t>line/81</t>
+  </si>
+  <si>
+    <t>line/82</t>
+  </si>
+  <si>
+    <t>line/83</t>
+  </si>
+  <si>
+    <t>line/84</t>
+  </si>
+  <si>
+    <t>line/85</t>
+  </si>
+  <si>
+    <t>line/86</t>
+  </si>
+  <si>
+    <t>line/87</t>
+  </si>
+  <si>
+    <t>line/88</t>
+  </si>
+  <si>
+    <t>line/89</t>
+  </si>
+  <si>
+    <t>line/90</t>
+  </si>
+  <si>
+    <t>line/91</t>
+  </si>
+  <si>
+    <t>line/92</t>
+  </si>
+  <si>
+    <t>line/93</t>
+  </si>
+  <si>
+    <t>line/94</t>
+  </si>
+  <si>
+    <t>line/95</t>
+  </si>
+  <si>
+    <t>line/96</t>
+  </si>
+  <si>
+    <t>line/97</t>
+  </si>
+  <si>
+    <t>line/98</t>
+  </si>
+  <si>
+    <t>line/99</t>
+  </si>
+  <si>
+    <t>line/100</t>
+  </si>
+  <si>
+    <t>line/101</t>
+  </si>
+  <si>
+    <t>line/102</t>
+  </si>
+  <si>
+    <t>line/103</t>
+  </si>
+  <si>
+    <t>line/104</t>
+  </si>
+  <si>
+    <t>line/105</t>
+  </si>
+  <si>
+    <t>line/106</t>
+  </si>
+  <si>
+    <t>line/107</t>
+  </si>
+  <si>
+    <t>line/108</t>
+  </si>
+  <si>
+    <t>line/109</t>
+  </si>
+  <si>
+    <t>line/110</t>
+  </si>
+  <si>
+    <t>line/111</t>
+  </si>
+  <si>
+    <t>line/112</t>
+  </si>
+  <si>
+    <t>line/113</t>
+  </si>
+  <si>
+    <t>line/114</t>
+  </si>
+  <si>
+    <t>line/115</t>
+  </si>
+  <si>
+    <t>line/116</t>
+  </si>
+  <si>
+    <t>line/117</t>
+  </si>
+  <si>
+    <t>line/118</t>
+  </si>
+  <si>
+    <t>line/119</t>
+  </si>
+  <si>
+    <t>line/120</t>
+  </si>
+  <si>
+    <t>line/121</t>
+  </si>
+  <si>
+    <t>line/122</t>
+  </si>
+  <si>
+    <t>line/123</t>
+  </si>
+  <si>
+    <t>line/124</t>
+  </si>
+  <si>
+    <t>line/125</t>
+  </si>
+  <si>
+    <t>line/126</t>
+  </si>
+  <si>
+    <t>line/127</t>
+  </si>
+  <si>
+    <t>line/128</t>
+  </si>
+  <si>
+    <t>line/129</t>
+  </si>
+  <si>
+    <t>line/130</t>
+  </si>
+  <si>
+    <t>line/131</t>
+  </si>
+  <si>
+    <t>line/132</t>
+  </si>
+  <si>
+    <t>line/133</t>
+  </si>
+  <si>
+    <t>line/134</t>
+  </si>
+  <si>
+    <t>line/135</t>
+  </si>
+  <si>
+    <t>line/136</t>
+  </si>
+  <si>
+    <t>line/137</t>
+  </si>
+  <si>
+    <t>line/138</t>
+  </si>
+  <si>
+    <t>line/139</t>
+  </si>
+  <si>
+    <t>line/140</t>
+  </si>
+  <si>
+    <t>line/141</t>
+  </si>
+  <si>
+    <t>line/142</t>
+  </si>
+  <si>
+    <t>line/143</t>
+  </si>
+  <si>
+    <t>line/144</t>
+  </si>
+  <si>
+    <t>line/145</t>
+  </si>
+  <si>
+    <t>line/146</t>
+  </si>
+  <si>
+    <t>line/147</t>
+  </si>
+  <si>
+    <t>line/148</t>
+  </si>
+  <si>
+    <t>line/149</t>
+  </si>
+  <si>
+    <t>line/150</t>
+  </si>
+  <si>
+    <t>line/151</t>
+  </si>
+  <si>
+    <t>line/152</t>
+  </si>
+  <si>
+    <t>line/153</t>
+  </si>
+  <si>
+    <t>line/154</t>
+  </si>
+  <si>
+    <t>line/155</t>
+  </si>
+  <si>
+    <t>line/156</t>
+  </si>
+  <si>
+    <t>line/157</t>
+  </si>
+  <si>
+    <t>line/158</t>
+  </si>
+  <si>
+    <t>line/159</t>
+  </si>
+  <si>
+    <t>line/160</t>
+  </si>
+  <si>
+    <t>line/161</t>
+  </si>
+  <si>
+    <t>line/162</t>
+  </si>
+  <si>
+    <t>line/163</t>
+  </si>
+  <si>
+    <t>line/164</t>
+  </si>
+  <si>
+    <t>line/165</t>
+  </si>
+  <si>
+    <t>line/166</t>
+  </si>
+  <si>
+    <t>line/167</t>
+  </si>
+  <si>
+    <t>line/168</t>
+  </si>
+  <si>
+    <t>line/169</t>
+  </si>
+  <si>
+    <t>line/170</t>
+  </si>
+  <si>
+    <t>line/171</t>
+  </si>
+  <si>
+    <t>line/172</t>
+  </si>
+  <si>
+    <t>line/173</t>
+  </si>
+  <si>
+    <t>line/174</t>
+  </si>
+  <si>
+    <t>line/175</t>
+  </si>
+  <si>
+    <t>line/176</t>
+  </si>
+  <si>
+    <t>line/177</t>
+  </si>
+  <si>
+    <t>line/178</t>
+  </si>
+  <si>
+    <t>line/179</t>
+  </si>
+  <si>
+    <t>line/180</t>
+  </si>
+  <si>
+    <t>line/181</t>
+  </si>
+  <si>
+    <t>line/182</t>
+  </si>
+  <si>
+    <t>line/183</t>
+  </si>
+  <si>
+    <t>line/184</t>
+  </si>
+  <si>
+    <t>line/185</t>
+  </si>
+  <si>
+    <t>line/186</t>
+  </si>
+  <si>
+    <t>line/187</t>
+  </si>
+  <si>
+    <t>line/188</t>
+  </si>
+  <si>
+    <t>line/189</t>
+  </si>
+  <si>
+    <t>line/190</t>
+  </si>
+  <si>
+    <t>line/191</t>
+  </si>
+  <si>
+    <t>line/192</t>
+  </si>
+  <si>
+    <t>line/193</t>
+  </si>
+  <si>
+    <t>line/194</t>
+  </si>
+  <si>
+    <t>line/195</t>
+  </si>
+  <si>
+    <t>line/196</t>
+  </si>
+  <si>
+    <t>line/197</t>
+  </si>
+  <si>
+    <t>line/198</t>
+  </si>
+  <si>
+    <t>line/199</t>
+  </si>
+  <si>
+    <t>line/200</t>
+  </si>
+  <si>
+    <t>line/201</t>
+  </si>
+  <si>
+    <t>line/202</t>
+  </si>
+  <si>
+    <t>line/203</t>
+  </si>
+  <si>
+    <t>line/204</t>
+  </si>
+  <si>
+    <t>line/205</t>
+  </si>
+  <si>
+    <t>line/206</t>
+  </si>
+  <si>
+    <t>line/207</t>
+  </si>
+  <si>
+    <t>line/208</t>
+  </si>
+  <si>
+    <t>line/209</t>
+  </si>
+  <si>
+    <t>line/210</t>
+  </si>
+  <si>
+    <t>line/211</t>
+  </si>
+  <si>
+    <t>line/212</t>
+  </si>
+  <si>
+    <t>line/213</t>
+  </si>
+  <si>
+    <t>line/214</t>
+  </si>
+  <si>
+    <t>line/215</t>
+  </si>
+  <si>
+    <t>line/216</t>
+  </si>
+  <si>
+    <t>line/217</t>
+  </si>
+  <si>
+    <t>line/218</t>
+  </si>
+  <si>
+    <t>line/219</t>
+  </si>
+  <si>
+    <t>line/220</t>
+  </si>
+  <si>
+    <t>line/221</t>
+  </si>
+  <si>
+    <t>line/222</t>
+  </si>
+  <si>
+    <t>line/223</t>
+  </si>
+  <si>
+    <t>line/224</t>
+  </si>
+  <si>
+    <t>line/225</t>
+  </si>
+  <si>
+    <t>line/226</t>
+  </si>
+  <si>
+    <t>line/227</t>
+  </si>
+  <si>
+    <t>line/228</t>
+  </si>
+  <si>
+    <t>line/229</t>
+  </si>
+  <si>
+    <t>line/230</t>
+  </si>
+  <si>
+    <t>line/231</t>
+  </si>
+  <si>
+    <t>line/232</t>
+  </si>
+  <si>
+    <t>line/233</t>
+  </si>
+  <si>
+    <t>line/234</t>
+  </si>
+  <si>
+    <t>line/235</t>
+  </si>
+  <si>
+    <t>line/236</t>
+  </si>
+  <si>
+    <t>line/237</t>
+  </si>
+  <si>
+    <t>line/238</t>
+  </si>
+  <si>
+    <t>line/239</t>
+  </si>
+  <si>
+    <t>line/240</t>
+  </si>
+  <si>
+    <t>line/241</t>
+  </si>
+  <si>
+    <t>line/242</t>
+  </si>
+  <si>
+    <t>line/243</t>
+  </si>
+  <si>
+    <t>line/244</t>
+  </si>
+  <si>
+    <t>line/245</t>
+  </si>
+  <si>
+    <t>line/246</t>
+  </si>
+  <si>
+    <t>line/247</t>
+  </si>
+  <si>
+    <t>line/248</t>
+  </si>
+  <si>
+    <t>line/249</t>
+  </si>
+  <si>
+    <t>line/250</t>
+  </si>
+  <si>
+    <t>line/251</t>
+  </si>
+  <si>
+    <t>line/252</t>
+  </si>
+  <si>
+    <t>line/253</t>
+  </si>
+  <si>
+    <t>line/254</t>
+  </si>
+  <si>
+    <t>line/255</t>
+  </si>
+  <si>
+    <t>line/256</t>
+  </si>
+  <si>
+    <t>line/257</t>
+  </si>
+  <si>
+    <t>line/258</t>
+  </si>
+  <si>
+    <t>line/259</t>
+  </si>
+  <si>
+    <t>line/260</t>
+  </si>
+  <si>
+    <t>line/261</t>
+  </si>
+  <si>
+    <t>line/262</t>
+  </si>
+  <si>
+    <t>line/263</t>
+  </si>
+  <si>
+    <t>line/264</t>
+  </si>
+  <si>
+    <t>line/265</t>
+  </si>
+  <si>
+    <t>line/266</t>
+  </si>
+  <si>
+    <t>line/267</t>
+  </si>
+  <si>
+    <t>line/268</t>
+  </si>
+  <si>
+    <t>line/269</t>
+  </si>
+  <si>
+    <t>line/270</t>
+  </si>
+  <si>
+    <t>line/271</t>
+  </si>
+  <si>
+    <t>line/272</t>
+  </si>
+  <si>
+    <t>line/273</t>
+  </si>
+  <si>
+    <t>line/274</t>
+  </si>
+  <si>
+    <t>line/275</t>
+  </si>
+  <si>
+    <t>line/276</t>
+  </si>
+  <si>
+    <t>line/277</t>
+  </si>
+  <si>
+    <t>line/278</t>
+  </si>
+  <si>
+    <t>line/279</t>
+  </si>
+  <si>
+    <t>line/280</t>
+  </si>
+  <si>
+    <t>line/281</t>
+  </si>
+  <si>
+    <t>line/282</t>
+  </si>
+  <si>
+    <t>line/283</t>
+  </si>
+  <si>
+    <t>line/284</t>
+  </si>
+  <si>
+    <t>line/285</t>
+  </si>
+  <si>
+    <t>line/286</t>
+  </si>
+  <si>
+    <t>line/287</t>
+  </si>
+  <si>
+    <t>line/288</t>
+  </si>
+  <si>
+    <t>line/289</t>
+  </si>
+  <si>
+    <t>line/290</t>
+  </si>
+  <si>
+    <t>line/291</t>
+  </si>
+  <si>
+    <t>line/292</t>
+  </si>
+  <si>
+    <t>line/293</t>
+  </si>
+  <si>
+    <t>line/294</t>
+  </si>
+  <si>
+    <t>line/295</t>
+  </si>
+  <si>
+    <t>line/296</t>
+  </si>
+  <si>
+    <t>line/297</t>
+  </si>
+  <si>
+    <t>line/298</t>
+  </si>
+  <si>
+    <t>line/299</t>
+  </si>
+  <si>
+    <t>line/300</t>
+  </si>
+  <si>
+    <t>line/301</t>
+  </si>
+  <si>
+    <t>line/302</t>
+  </si>
+  <si>
+    <t>line/303</t>
+  </si>
+  <si>
+    <t>line/304</t>
+  </si>
+  <si>
+    <t>line/305</t>
+  </si>
+  <si>
+    <t>line/306</t>
+  </si>
+  <si>
+    <t>line/307</t>
+  </si>
+  <si>
+    <t>line/308</t>
+  </si>
+  <si>
+    <t>line/309</t>
+  </si>
+  <si>
+    <t>line/310</t>
+  </si>
+  <si>
+    <t>line/311</t>
+  </si>
+  <si>
+    <t>line/312</t>
+  </si>
+  <si>
+    <t>line/313</t>
+  </si>
+  <si>
+    <t>line/314</t>
+  </si>
+  <si>
+    <t>line/315</t>
+  </si>
+  <si>
+    <t>line/316</t>
+  </si>
+  <si>
+    <t>line/317</t>
+  </si>
+  <si>
+    <t>line/318</t>
+  </si>
+  <si>
+    <t>line/319</t>
+  </si>
+  <si>
+    <t>line/320</t>
+  </si>
+  <si>
+    <t>line/321</t>
+  </si>
+  <si>
+    <t>line/322</t>
+  </si>
+  <si>
+    <t>line/323</t>
+  </si>
+  <si>
+    <t>line/324</t>
+  </si>
+  <si>
+    <t>line/325</t>
+  </si>
+  <si>
+    <t>line/326</t>
+  </si>
+  <si>
+    <t>line/327</t>
+  </si>
+  <si>
+    <t>line/328</t>
+  </si>
+  <si>
+    <t>line/329</t>
+  </si>
+  <si>
+    <t>line/330</t>
+  </si>
+  <si>
+    <t>line/331</t>
+  </si>
+  <si>
+    <t>Sums</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +1307,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1023,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:NF53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="LK1" workbookViewId="0">
+      <selection activeCell="LX2" sqref="LX2:LX53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1040,1003 +2045,1003 @@
         <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="L1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="M1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="N1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="O1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="P1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="Q1" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="S1" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="T1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="U1" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="V1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="W1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="X1" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="Y1" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="Z1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="AA1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="AB1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="AC1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AD1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AE1" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="AF1" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AH1" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="AI1" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AJ1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AK1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AL1" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AM1" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="AN1" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="AO1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="AP1" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="AQ1" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="AR1" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="AS1" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AT1" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="AU1" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="AV1" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="AW1" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="AX1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AY1" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="AZ1" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="BA1" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="BB1" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="BC1" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="BD1" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BE1" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="BF1" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="BG1" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="BH1" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="BI1" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="BJ1" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="BK1" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="BL1" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="BM1" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="BN1" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="BO1" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="BP1" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="BQ1" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="BR1" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="BS1" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="BT1" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="BU1" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="BV1" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="BW1" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="BX1" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="BY1" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="BZ1" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="CA1" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="CB1" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="CC1" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="CD1" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="CE1" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="CF1" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="CG1" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="CH1" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="CI1" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="CJ1" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="CK1" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="CL1" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="CM1" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="CN1" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="CO1" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="CP1" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="CQ1" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="CR1" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="CS1" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="CT1" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="CU1" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="CV1" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="CW1" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="CX1" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="CY1" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="CZ1" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="DA1" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="DB1" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="DC1" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="DD1" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="DE1" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="DF1" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="DG1" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="DH1" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="DI1" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="DJ1" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="DK1" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="DL1" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="DM1" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="DN1" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="DO1" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="DP1" t="s">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="DQ1" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="DR1" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="DS1" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="DT1" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="DU1" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="DV1" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="DW1" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="DX1" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="DY1" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="DZ1" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="EA1" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="EB1" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="EC1" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="ED1" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="EE1" t="s">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="EF1" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="EG1" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="EH1" t="s">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="EI1" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="EJ1" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="EK1" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="EL1" t="s">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="EM1" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="EN1" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="EO1" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="EP1" t="s">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="EQ1" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="ER1" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="ES1" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="ET1" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="EU1" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="EV1" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="EW1" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="EX1" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="EY1" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="EZ1" t="s">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="FA1" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="FB1" t="s">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="FC1" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="FD1" t="s">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="FE1" t="s">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="FF1" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="FG1" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="FH1" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="FI1" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="FJ1" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="FK1" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="FL1" t="s">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="FM1" t="s">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="FN1" t="s">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="FO1" t="s">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="FP1" t="s">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="FQ1" t="s">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="FR1" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="FS1" t="s">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="FT1" t="s">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="FU1" t="s">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="FV1" t="s">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="FW1" t="s">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="FX1" t="s">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="FY1" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="FZ1" t="s">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="GA1" t="s">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="GB1" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="GC1" t="s">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="GD1" t="s">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="GE1" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="GF1" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="GG1" t="s">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="GH1" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="GI1" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="GJ1" t="s">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="GK1" t="s">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="GL1" t="s">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="GM1" t="s">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="GN1" t="s">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="GO1" t="s">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="GP1" t="s">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="GQ1" t="s">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="GR1" t="s">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="GS1" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="GT1" t="s">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="GU1" t="s">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="GV1" t="s">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="GW1" t="s">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="GX1" t="s">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="GY1" t="s">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="GZ1" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="HA1" t="s">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="HB1" t="s">
-        <v>41</v>
+        <v>255</v>
       </c>
       <c r="HC1" t="s">
-        <v>41</v>
+        <v>256</v>
       </c>
       <c r="HD1" t="s">
-        <v>41</v>
+        <v>257</v>
       </c>
       <c r="HE1" t="s">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="HF1" t="s">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="HG1" t="s">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="HH1" t="s">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="HI1" t="s">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c r="HJ1" t="s">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="HK1" t="s">
-        <v>41</v>
+        <v>264</v>
       </c>
       <c r="HL1" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="HM1" t="s">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="HN1" t="s">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="HO1" t="s">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="HP1" t="s">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="HQ1" t="s">
-        <v>41</v>
+        <v>270</v>
       </c>
       <c r="HR1" t="s">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="HS1" t="s">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="HT1" t="s">
-        <v>41</v>
+        <v>273</v>
       </c>
       <c r="HU1" t="s">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="HV1" t="s">
-        <v>41</v>
+        <v>275</v>
       </c>
       <c r="HW1" t="s">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="HX1" t="s">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="HY1" t="s">
-        <v>41</v>
+        <v>278</v>
       </c>
       <c r="HZ1" t="s">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="IA1" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="IB1" t="s">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="IC1" t="s">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="ID1" t="s">
-        <v>41</v>
+        <v>283</v>
       </c>
       <c r="IE1" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="IF1" t="s">
-        <v>41</v>
+        <v>285</v>
       </c>
       <c r="IG1" t="s">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="IH1" t="s">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="II1" t="s">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c r="IJ1" t="s">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="IK1" t="s">
-        <v>41</v>
+        <v>290</v>
       </c>
       <c r="IL1" t="s">
-        <v>41</v>
+        <v>291</v>
       </c>
       <c r="IM1" t="s">
-        <v>41</v>
+        <v>292</v>
       </c>
       <c r="IN1" t="s">
-        <v>41</v>
+        <v>293</v>
       </c>
       <c r="IO1" t="s">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="IP1" t="s">
-        <v>41</v>
+        <v>295</v>
       </c>
       <c r="IQ1" t="s">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="IR1" t="s">
-        <v>41</v>
+        <v>297</v>
       </c>
       <c r="IS1" t="s">
-        <v>41</v>
+        <v>298</v>
       </c>
       <c r="IT1" t="s">
-        <v>41</v>
+        <v>299</v>
       </c>
       <c r="IU1" t="s">
-        <v>41</v>
+        <v>300</v>
       </c>
       <c r="IV1" t="s">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="IW1" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="IX1" t="s">
-        <v>41</v>
+        <v>303</v>
       </c>
       <c r="IY1" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="IZ1" t="s">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="JA1" t="s">
-        <v>41</v>
+        <v>306</v>
       </c>
       <c r="JB1" t="s">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="JC1" t="s">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="JD1" t="s">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="JE1" t="s">
-        <v>41</v>
+        <v>310</v>
       </c>
       <c r="JF1" t="s">
-        <v>41</v>
+        <v>311</v>
       </c>
       <c r="JG1" t="s">
-        <v>41</v>
+        <v>312</v>
       </c>
       <c r="JH1" t="s">
-        <v>41</v>
+        <v>313</v>
       </c>
       <c r="JI1" t="s">
-        <v>41</v>
+        <v>314</v>
       </c>
       <c r="JJ1" t="s">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="JK1" t="s">
-        <v>41</v>
+        <v>316</v>
       </c>
       <c r="JL1" t="s">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="JM1" t="s">
-        <v>41</v>
+        <v>318</v>
       </c>
       <c r="JN1" t="s">
-        <v>41</v>
+        <v>319</v>
       </c>
       <c r="JO1" t="s">
-        <v>41</v>
+        <v>320</v>
       </c>
       <c r="JP1" t="s">
-        <v>41</v>
+        <v>321</v>
       </c>
       <c r="JQ1" t="s">
-        <v>41</v>
+        <v>322</v>
       </c>
       <c r="JR1" t="s">
-        <v>41</v>
+        <v>323</v>
       </c>
       <c r="JS1" t="s">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="JT1" t="s">
-        <v>41</v>
+        <v>325</v>
       </c>
       <c r="JU1" t="s">
-        <v>41</v>
+        <v>326</v>
       </c>
       <c r="JV1" t="s">
-        <v>41</v>
+        <v>327</v>
       </c>
       <c r="JW1" t="s">
-        <v>41</v>
+        <v>328</v>
       </c>
       <c r="JX1" t="s">
-        <v>41</v>
+        <v>329</v>
       </c>
       <c r="JY1" t="s">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="JZ1" t="s">
-        <v>41</v>
+        <v>331</v>
       </c>
       <c r="KA1" t="s">
-        <v>41</v>
+        <v>332</v>
       </c>
       <c r="KB1" t="s">
-        <v>41</v>
+        <v>333</v>
       </c>
       <c r="KC1" t="s">
-        <v>41</v>
+        <v>334</v>
       </c>
       <c r="KD1" t="s">
-        <v>41</v>
+        <v>335</v>
       </c>
       <c r="KE1" t="s">
-        <v>41</v>
+        <v>336</v>
       </c>
       <c r="KF1" t="s">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="KG1" t="s">
-        <v>41</v>
+        <v>338</v>
       </c>
       <c r="KH1" t="s">
-        <v>41</v>
+        <v>339</v>
       </c>
       <c r="KI1" t="s">
-        <v>41</v>
+        <v>340</v>
       </c>
       <c r="KJ1" t="s">
-        <v>41</v>
+        <v>341</v>
       </c>
       <c r="KK1" t="s">
-        <v>41</v>
+        <v>342</v>
       </c>
       <c r="KL1" t="s">
-        <v>41</v>
+        <v>343</v>
       </c>
       <c r="KM1" t="s">
-        <v>41</v>
+        <v>344</v>
       </c>
       <c r="KN1" t="s">
-        <v>41</v>
+        <v>345</v>
       </c>
       <c r="KO1" t="s">
-        <v>41</v>
+        <v>346</v>
       </c>
       <c r="KP1" t="s">
-        <v>41</v>
+        <v>347</v>
       </c>
       <c r="KQ1" t="s">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c r="KR1" t="s">
-        <v>41</v>
+        <v>349</v>
       </c>
       <c r="KS1" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="KT1" t="s">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="KU1" t="s">
-        <v>41</v>
+        <v>352</v>
       </c>
       <c r="KV1" t="s">
-        <v>41</v>
+        <v>353</v>
       </c>
       <c r="KW1" t="s">
-        <v>41</v>
+        <v>354</v>
       </c>
       <c r="KX1" t="s">
-        <v>41</v>
+        <v>355</v>
       </c>
       <c r="KY1" t="s">
-        <v>41</v>
+        <v>356</v>
       </c>
       <c r="KZ1" t="s">
-        <v>41</v>
+        <v>357</v>
       </c>
       <c r="LA1" t="s">
-        <v>41</v>
+        <v>358</v>
       </c>
       <c r="LB1" t="s">
-        <v>41</v>
+        <v>359</v>
       </c>
       <c r="LC1" t="s">
-        <v>41</v>
+        <v>360</v>
       </c>
       <c r="LD1" t="s">
-        <v>41</v>
+        <v>361</v>
       </c>
       <c r="LE1" t="s">
-        <v>41</v>
+        <v>362</v>
       </c>
       <c r="LF1" t="s">
-        <v>41</v>
+        <v>363</v>
       </c>
       <c r="LG1" t="s">
-        <v>41</v>
+        <v>364</v>
       </c>
       <c r="LH1" t="s">
-        <v>41</v>
+        <v>365</v>
       </c>
       <c r="LI1" t="s">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="LJ1" t="s">
-        <v>41</v>
+        <v>367</v>
       </c>
       <c r="LK1" t="s">
-        <v>41</v>
+        <v>368</v>
       </c>
       <c r="LL1" t="s">
-        <v>41</v>
+        <v>369</v>
       </c>
       <c r="LM1" t="s">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="LN1" t="s">
-        <v>41</v>
+        <v>371</v>
       </c>
       <c r="LO1" t="s">
-        <v>41</v>
+        <v>372</v>
       </c>
       <c r="LP1" t="s">
-        <v>41</v>
+        <v>373</v>
       </c>
       <c r="LQ1" t="s">
-        <v>41</v>
+        <v>374</v>
       </c>
       <c r="LR1" t="s">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="LS1" t="s">
-        <v>41</v>
+        <v>376</v>
       </c>
       <c r="LT1" t="s">
-        <v>41</v>
+        <v>377</v>
       </c>
       <c r="LU1" t="s">
-        <v>41</v>
+        <v>378</v>
       </c>
       <c r="LV1" t="s">
-        <v>41</v>
+        <v>379</v>
       </c>
       <c r="LW1" t="s">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="LX1" t="s">
-        <v>41</v>
+        <v>381</v>
       </c>
       <c r="LY1" t="s">
         <v>41</v>
@@ -6577,6 +7582,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:NF53" xr:uid="{2D2B7045-D6D8-2B43-A5BD-E399144426D2}"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
